--- a/dataset/loan_player_data/DataXLSX_Premier League.xlsx
+++ b/dataset/loan_player_data/DataXLSX_Premier League.xlsx
@@ -615,12 +615,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>105</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>102</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -827,22 +827,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>76'</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>75'</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>72'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1993,17 +1993,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>71'</t>
+          <t>72'</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>122</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2894,22 +2894,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>231</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3000,12 +3000,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>112</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>93</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>170</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>71'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3371,32 +3371,32 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>6.60</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>1.28</t>
         </is>
       </c>
     </row>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3424,27 +3424,27 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>68'</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3477,32 +3477,32 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>68'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>7.40</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5279,32 +5279,32 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>70'</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>4.90</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -5332,32 +5332,32 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>146</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>70'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>25.80</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>28.20</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -5385,32 +5385,32 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>119</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>101</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>25.80</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>28.20</t>
+          <t>7.35</t>
         </is>
       </c>
     </row>
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -5438,32 +5438,32 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>137</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>8.30</t>
         </is>
       </c>
     </row>
@@ -5915,12 +5915,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>205</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>193</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>272</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>184</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6127,32 +6127,32 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>126</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>5.40</t>
         </is>
       </c>
     </row>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Portsmouth FC</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6180,32 +6180,32 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>94</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>73'</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Portsmouth FC</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -6233,32 +6233,32 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>125</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>114</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>73'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>5.85</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Sunderland AFC</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -6276,7 +6276,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6286,32 +6286,32 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>190</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>152</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>14.43</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Sunderland AFC</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -6339,32 +6339,32 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>112</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>85</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>72'</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>13.40</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>8.25</t>
         </is>
       </c>
     </row>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -6392,32 +6392,32 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>148</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>137</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>72'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>16.05</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>18.05</t>
         </is>
       </c>
     </row>
@@ -6975,12 +6975,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>259</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>235</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -7222,7 +7222,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7240,32 +7240,32 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>184</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>155</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>20.60</t>
+          <t>9.90</t>
         </is>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Chelsea FC</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -7293,32 +7293,32 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>167</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>149</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>9.35</t>
+          <t>17.85</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>22.20</t>
         </is>
       </c>
     </row>
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Chelsea FC</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7346,32 +7346,32 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>216</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>170</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>81'</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>17.85</t>
+          <t>28.60</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>29.35</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -7399,32 +7399,32 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>124</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>87</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>28.60</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>29.35</t>
+          <t>7.85</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -7442,7 +7442,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7452,32 +7452,32 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>134</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>79'</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>36.50</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>30.83</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Blackpool FC</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -7505,32 +7505,32 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>74'</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>36.50</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>30.83</t>
+          <t>4.45</t>
         </is>
       </c>
     </row>
@@ -7540,7 +7540,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Blackpool FC</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7558,32 +7558,32 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>136</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>101</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>19.05</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8494,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -8512,32 +8512,32 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>110</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.95</t>
         </is>
       </c>
     </row>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Liverpool FC</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8565,32 +8565,32 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>156</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>8.55</t>
+          <t>26.10</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>21.30</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Liverpool FC</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -8618,32 +8618,32 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>77'</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>26.10</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>21.30</t>
+          <t>2.78</t>
         </is>
       </c>
     </row>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -8671,32 +8671,32 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>99</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>77'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>13.80</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -8724,32 +8724,32 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>61</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>13.80</t>
+          <t>6.25</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10155,32 +10155,32 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>228</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>162</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>76'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>26.15</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>22.25</t>
         </is>
       </c>
     </row>
@@ -10190,7 +10190,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -10208,32 +10208,32 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>216</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>26.15</t>
+          <t>12.40</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>12.45</t>
         </is>
       </c>
     </row>
@@ -10243,7 +10243,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -10261,32 +10261,32 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>175</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>148</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>76'</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>12.40</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.10</t>
         </is>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>75'</t>
+          <t>74'</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>84'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>164</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -11639,12 +11639,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>193</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -11692,12 +11692,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>276</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>222</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>157</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -11813,7 +11813,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -12752,12 +12752,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>117</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -13653,12 +13653,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -14289,22 +14289,22 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>582</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>478</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>88'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>86'</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>85'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>40.08</t>
+          <t>31.08</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>38.95</t>
+          <t>30.20</t>
         </is>
       </c>
     </row>
@@ -15682,7 +15682,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>89'</t>
+          <t>87'</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -15735,7 +15735,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16371,7 +16371,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>76'</t>
+          <t>67'</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -16424,7 +16424,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -16462,12 +16462,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>340</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>267</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -16636,7 +16636,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>5.23</t>
         </is>
       </c>
     </row>
@@ -16800,12 +16800,12 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>76.70</t>
+          <t>76.80</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>56.30</t>
+          <t>56.40</t>
         </is>
       </c>
     </row>
@@ -16848,7 +16848,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>83'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -17007,7 +17007,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>87'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17060,7 +17060,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>74'</t>
+          <t>80'</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17166,7 +17166,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>86'</t>
+          <t>84'</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>79'</t>
+          <t>88'</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -17575,7 +17575,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>82'</t>
+          <t>85'</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -17628,12 +17628,12 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>294</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>221</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -17643,7 +17643,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>80'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
@@ -17893,17 +17893,17 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>125</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -17918,7 +17918,7 @@
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>61.50</t>
+          <t>63.50</t>
         </is>
       </c>
     </row>
@@ -18120,7 +18120,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>81'</t>
+          <t>82'</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -18279,7 +18279,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>78'</t>
+          <t>83'</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
@@ -18438,7 +18438,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>72'</t>
+          <t>77'</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
